--- a/biology/Botanique/Peristeria/Peristeria.xlsx
+++ b/biology/Botanique/Peristeria/Peristeria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peristeria est un genre d'orchidées  terrestres comptant 11 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Peristeria vient du grec peristerion = petit pigeon, en allusion à sa forme de fleurs.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidées terrestres ou épiphytes. 
 Grand pseudobulbes.
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De l'Amérique centrale, depuis le Costa Rica, jusqu'au Pérou et au nord du Brésil.
 </t>
@@ -605,18 +623,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Peristeria cerina Lindl., Edwards's Bot. Reg. 23: t. 1953 (1837)
-Peristeria cochlearis Garay, Orquideologia 7: 199 (1972)[2].
-Peristeria elata Hook., Bot. Mag. 58: t. 3116 (1831)[3].
-Peristeria guttata Knowles &amp; Westc., Fl. Cab. 2: 99 (1838)[4].
+Peristeria cochlearis Garay, Orquideologia 7: 199 (1972).
+Peristeria elata Hook., Bot. Mag. 58: t. 3116 (1831).
+Peristeria guttata Knowles &amp; Westc., Fl. Cab. 2: 99 (1838).
 Peristeria leucoxantha Garay, Arch. Jard. Bot. Rio de Janeiro 13: 46 (1954).
 Peristeria lindenii Rolfe, Lindenia 7: 83 (1891).
 Peristeria pendula Hook., Bot. Mag. 63: t. 3479 (1836).
 Peristeria rossiana Rchb.f., Gard. Chron. 1889(1): 8 (1889).
 Peristeria selligera Rchb.f., Gard. Chron. 1887(2): 272 (1887).
-Peristeria serroniana (Barb.Rodr.) Garay, Arch. Jard. Bot. Rio de Janeiro 13: 47 (1954)[5].
+Peristeria serroniana (Barb.Rodr.) Garay, Arch. Jard. Bot. Rio de Janeiro 13: 47 (1954).
 Peristeria violacea (Josst) Foldats, Acta Bot. Venez. 3: 394 (1968).</t>
         </is>
       </c>
